--- a/biology/Botanique/Alexandre_Lucas/Alexandre_Lucas.xlsx
+++ b/biology/Botanique/Alexandre_Lucas/Alexandre_Lucas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alexandre Lucas est une variété de poire.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Beurré Alexandre Lucas.</t>
         </is>
@@ -541,10 +555,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une vieille variété de poire de table, trouvée en 1870, dans un bois près de Blois, par Alexandre Lucas[1].
-Mise au commerce par les frères Transon d'Orléans, en 1874 sous le nom de ‘Beurré Alexandre Lucas’[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une vieille variété de poire de table, trouvée en 1870, dans un bois près de Blois, par Alexandre Lucas.
+Mise au commerce par les frères Transon d'Orléans, en 1874 sous le nom de ‘Beurré Alexandre Lucas’.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'est pas auto-fertile et ne peut pas être destiné à la pollinisation d'autres variétés.
 </t>
@@ -604,7 +622,9 @@
           <t>Pollinisateurs recommandés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Beurré Hardy, Clapp's Favorite, Comtesse de Paris, William's Bon Chrétien...
 </t>
@@ -635,11 +655,13 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Verdâtre au moment de la cueillette, la poire prend au fur et à mesure de sa maturité une belle couleur jaune ambré.
 Fait rare dans la famille des poires de type Beurré, elle est de bonne tenue pendant un à deux mois, suivant l'endroit de conservation.
-Le code PLU du fruit est 3376[3].
+Le code PLU du fruit est 3376.
 </t>
         </is>
       </c>
@@ -669,6 +691,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -694,7 +718,9 @@
           <t>Observations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr Jules Guyot, INFEL 1445A
 </t>
